--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usmanali/Uwindsor/Forth/Project/Analysis and Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/usmanali/Uwindsor/Forth/Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F09802-5863-834C-9C14-4925AA2458E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9713AC1-3FA6-7040-B390-0B136173E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="740" windowWidth="13620" windowHeight="16740" xr2:uid="{E4F4B0A7-86E0-A44A-9275-35D290469FE2}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{E4F4B0A7-86E0-A44A-9275-35D290469FE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
   <si>
     <t>Year</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>BlockChain</t>
-  </si>
-  <si>
-    <t>2: 'Established', 1: 'Emerging', 3: 'Growing', 0: 'Decline'</t>
   </si>
   <si>
     <t>Growing- 3</t>
@@ -474,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968E2727-8FA6-CF42-87CF-966C4990576D}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,7 +485,7 @@
     <col min="4" max="4" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -502,7 +499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45658</v>
       </c>
@@ -513,10 +510,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45658</v>
       </c>
@@ -527,10 +524,10 @@
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45658</v>
       </c>
@@ -541,10 +538,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45658</v>
       </c>
@@ -555,13 +552,10 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45658</v>
       </c>
@@ -572,10 +566,10 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45658</v>
       </c>
@@ -586,10 +580,10 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45658</v>
       </c>
@@ -600,10 +594,10 @@
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45658</v>
       </c>
@@ -614,10 +608,10 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>46023</v>
       </c>
@@ -628,10 +622,10 @@
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>46023</v>
       </c>
@@ -642,10 +636,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>46023</v>
       </c>
@@ -656,10 +650,10 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>46023</v>
       </c>
@@ -670,10 +664,10 @@
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>46023</v>
       </c>
@@ -684,10 +678,10 @@
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>46023</v>
       </c>
@@ -698,10 +692,10 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>46023</v>
       </c>
@@ -712,7 +706,7 @@
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -726,7 +720,7 @@
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -740,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -754,7 +748,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -768,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,7 +776,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -796,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -810,7 +804,7 @@
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -824,7 +818,7 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -838,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
